--- a/storage/app/template_excel/template_enrollment.xlsx
+++ b/storage/app/template_excel/template_enrollment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah SIB\Semester 5\FAI\PROYEK\proyek_kpi\storage\app\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE109CC-F265-4EB6-B630-B9C4C203CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA771A28-8CB3-425D-A3CE-999FE7F88149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3B5040CE-D3B3-45FA-BC2D-AD832244E482}"/>
   </bookViews>
@@ -81,12 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -408,7 +405,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,24 +419,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>224170005</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>224170006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>